--- a/Tabela  1d - Taxa Bruta de Natalidade por fontes.xlsx
+++ b/Tabela  1d - Taxa Bruta de Natalidade por fontes.xlsx
@@ -429,7 +429,7 @@
         <v>16.11369399830938</v>
       </c>
       <c r="C5">
-        <v>16.18100024317095</v>
+        <v>16.01201090795401</v>
       </c>
       <c r="D5">
         <v>15.59</v>
@@ -440,10 +440,10 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>16.4382448479457</v>
+        <v>15.93891738964008</v>
       </c>
       <c r="C6">
-        <v>15.91860213973043</v>
+        <v>16.08254977058024</v>
       </c>
       <c r="D6">
         <v>15.83</v>
@@ -454,10 +454,10 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>15.21431507674032</v>
+        <v>16.19092385716236</v>
       </c>
       <c r="C7">
-        <v>15.68366300608046</v>
+        <v>15.70156633023629</v>
       </c>
       <c r="D7">
         <v>15.83</v>
@@ -468,10 +468,10 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>15.4202580838025</v>
+        <v>14.99537752091187</v>
       </c>
       <c r="C8">
-        <v>15.23549731785495</v>
+        <v>15.4579714236682</v>
       </c>
       <c r="D8">
         <v>14.79</v>
@@ -482,10 +482,10 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>15.07817828175979</v>
+        <v>15.20543612764951</v>
       </c>
       <c r="C9">
-        <v>14.91885009401046</v>
+        <v>15.02324929197897</v>
       </c>
       <c r="D9">
         <v>15.18</v>
@@ -496,10 +496,10 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>14.27288592424019</v>
+        <v>14.8694119424307</v>
       </c>
       <c r="C10">
-        <v>14.12854883354434</v>
+        <v>14.71228974813009</v>
       </c>
       <c r="D10">
         <v>14.93</v>
@@ -510,10 +510,10 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>13.06494666941944</v>
+        <v>14.08097272960828</v>
       </c>
       <c r="C11">
-        <v>13.2568000058419</v>
+        <v>13.93857639513556</v>
       </c>
       <c r="D11">
         <v>14.67</v>
@@ -524,7 +524,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>12.46009069150801</v>
+        <v>12.89448217979352</v>
       </c>
       <c r="D12">
         <v>14.43</v>
